--- a/data/pca/factorExposure/factorExposure_2019-03-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-03-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.1207881251873967</v>
+        <v>-0.07635069819943924</v>
       </c>
       <c r="C2">
-        <v>0.01037428479291906</v>
+        <v>-0.03387752132086711</v>
       </c>
       <c r="D2">
-        <v>-0.04947367420629135</v>
+        <v>-0.01252644767842983</v>
       </c>
       <c r="E2">
-        <v>0.1272233835946431</v>
+        <v>-0.04094047825207856</v>
       </c>
       <c r="F2">
-        <v>-0.1031383566028604</v>
+        <v>-0.1409793721914988</v>
       </c>
       <c r="G2">
-        <v>-0.04004913452017439</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.1058583393612116</v>
+      </c>
+      <c r="H2">
+        <v>0.06005395616018031</v>
+      </c>
+      <c r="I2">
+        <v>0.02895863374740048</v>
+      </c>
+      <c r="J2">
+        <v>0.06828058299756377</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.213717194628764</v>
+        <v>-0.1702962186756659</v>
       </c>
       <c r="C3">
-        <v>0.1420761778985862</v>
+        <v>-0.08800525724156735</v>
       </c>
       <c r="D3">
-        <v>0.04280764458805977</v>
+        <v>0.03433418215513394</v>
       </c>
       <c r="E3">
-        <v>0.3339014913546459</v>
+        <v>0.009875508185266788</v>
       </c>
       <c r="F3">
-        <v>-0.009450315186944218</v>
+        <v>-0.3694647687099228</v>
       </c>
       <c r="G3">
-        <v>-0.07717109690820344</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.09804242582255859</v>
+      </c>
+      <c r="H3">
+        <v>0.2861044650586655</v>
+      </c>
+      <c r="I3">
+        <v>0.1873977976314554</v>
+      </c>
+      <c r="J3">
+        <v>0.2389574151082949</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.09466605938253161</v>
+        <v>-0.07550128943707343</v>
       </c>
       <c r="C4">
-        <v>0.04104951947668445</v>
+        <v>-0.03446448306513333</v>
       </c>
       <c r="D4">
-        <v>-0.02377462843084082</v>
+        <v>0.02686975237247379</v>
       </c>
       <c r="E4">
-        <v>0.07598055821850416</v>
+        <v>-0.0373879197034439</v>
       </c>
       <c r="F4">
-        <v>-0.02948043881248092</v>
+        <v>-0.08153661977975867</v>
       </c>
       <c r="G4">
-        <v>-0.03229894499217868</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.04694317733285894</v>
+      </c>
+      <c r="H4">
+        <v>0.02403785604449934</v>
+      </c>
+      <c r="I4">
+        <v>0.03059622119711578</v>
+      </c>
+      <c r="J4">
+        <v>0.05947845407475861</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.01817224330678495</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.009526723395540294</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.009962875932890266</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.005411035115450362</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-0.004442281478135619</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.02100820059866875</v>
+      </c>
+      <c r="H6">
+        <v>-0.001673371750959562</v>
+      </c>
+      <c r="I6">
+        <v>-0.01410321606365325</v>
+      </c>
+      <c r="J6">
+        <v>0.002256712729592465</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.04268247059090709</v>
+        <v>-0.03530880186481838</v>
       </c>
       <c r="C7">
-        <v>0.01535397341820159</v>
+        <v>-0.00327802045920739</v>
       </c>
       <c r="D7">
-        <v>-0.03614481321137081</v>
+        <v>0.03960542112966074</v>
       </c>
       <c r="E7">
-        <v>0.07570894305706127</v>
+        <v>-0.02900806368369176</v>
       </c>
       <c r="F7">
-        <v>0.05301397035654144</v>
+        <v>-0.05456160417312304</v>
       </c>
       <c r="G7">
-        <v>0.01355534263197636</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.005814014099255659</v>
+      </c>
+      <c r="H7">
+        <v>0.04593729385437399</v>
+      </c>
+      <c r="I7">
+        <v>0.0004170970106124985</v>
+      </c>
+      <c r="J7">
+        <v>0.05602741524907178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.04370647096791828</v>
+        <v>-0.03159927939426496</v>
       </c>
       <c r="C8">
-        <v>0.05379352393508575</v>
+        <v>-0.04163112435885261</v>
       </c>
       <c r="D8">
-        <v>-0.004230153539820669</v>
+        <v>0.02945398517717773</v>
       </c>
       <c r="E8">
-        <v>0.07426485183643668</v>
+        <v>-0.0179726856430911</v>
       </c>
       <c r="F8">
-        <v>-0.003962371943901847</v>
+        <v>-0.07197127468298188</v>
       </c>
       <c r="G8">
-        <v>-0.01504407259302907</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.022184466896203</v>
+      </c>
+      <c r="H8">
+        <v>0.04424131174989361</v>
+      </c>
+      <c r="I8">
+        <v>0.03386914422669671</v>
+      </c>
+      <c r="J8">
+        <v>0.06130010647418351</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.08289197752786139</v>
+        <v>-0.06178567463548047</v>
       </c>
       <c r="C9">
-        <v>0.03973650850618768</v>
+        <v>-0.0314890458834465</v>
       </c>
       <c r="D9">
-        <v>-0.03234303267047924</v>
+        <v>0.03107731490463761</v>
       </c>
       <c r="E9">
-        <v>0.06224100588974962</v>
+        <v>-0.03283232148396004</v>
       </c>
       <c r="F9">
-        <v>-0.01596431093743229</v>
+        <v>-0.08212199077605389</v>
       </c>
       <c r="G9">
-        <v>-0.04520968404290122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04336304044219833</v>
+      </c>
+      <c r="H9">
+        <v>0.0218328494228053</v>
+      </c>
+      <c r="I9">
+        <v>0.01331278403285631</v>
+      </c>
+      <c r="J9">
+        <v>0.03656984164430736</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.01449971278237001</v>
+        <v>-0.02468274749647003</v>
       </c>
       <c r="C10">
-        <v>-0.1588586923464642</v>
+        <v>0.1418299783978006</v>
       </c>
       <c r="D10">
-        <v>0.03050707328330608</v>
+        <v>-0.0648178278653663</v>
       </c>
       <c r="E10">
-        <v>0.07095684403644506</v>
+        <v>0.02978714299814769</v>
       </c>
       <c r="F10">
-        <v>-0.01280026666019765</v>
+        <v>-0.06701886048756438</v>
       </c>
       <c r="G10">
-        <v>0.01045826566561782</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02238906521583286</v>
+      </c>
+      <c r="H10">
+        <v>0.003622651607083483</v>
+      </c>
+      <c r="I10">
+        <v>0.1081009258913702</v>
+      </c>
+      <c r="J10">
+        <v>-0.00446994517912763</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.05866747725169168</v>
+        <v>-0.05105117956161331</v>
       </c>
       <c r="C11">
-        <v>0.01419042461119134</v>
+        <v>-0.0277428382401574</v>
       </c>
       <c r="D11">
-        <v>0.006457972769021275</v>
+        <v>0.002689165720969522</v>
       </c>
       <c r="E11">
-        <v>0.04465936391081867</v>
+        <v>-0.008445838016142918</v>
       </c>
       <c r="F11">
-        <v>-0.005040454330737061</v>
+        <v>-0.04034743270152943</v>
       </c>
       <c r="G11">
-        <v>0.01242544245051491</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.006819360852836644</v>
+      </c>
+      <c r="H11">
+        <v>0.002111512497616036</v>
+      </c>
+      <c r="I11">
+        <v>-0.01076097323992309</v>
+      </c>
+      <c r="J11">
+        <v>0.04608990321918722</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.04509621130922215</v>
+        <v>-0.04808261188693737</v>
       </c>
       <c r="C12">
-        <v>0.01751705616572925</v>
+        <v>-0.02067708504644101</v>
       </c>
       <c r="D12">
-        <v>0.003048419136161814</v>
+        <v>0.01166266648331656</v>
       </c>
       <c r="E12">
-        <v>0.03070440079249937</v>
+        <v>-0.01061411173300498</v>
       </c>
       <c r="F12">
-        <v>0.009066519308589802</v>
+        <v>-0.01547994646954173</v>
       </c>
       <c r="G12">
-        <v>-0.003183912758577619</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.002267574699862013</v>
+      </c>
+      <c r="H12">
+        <v>0.004316543023820741</v>
+      </c>
+      <c r="I12">
+        <v>-0.006916758059404432</v>
+      </c>
+      <c r="J12">
+        <v>0.03142811258228851</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.06324897509514393</v>
+        <v>-0.0427362519915311</v>
       </c>
       <c r="C13">
-        <v>0.02794716806182536</v>
+        <v>-0.03016344394079887</v>
       </c>
       <c r="D13">
-        <v>0.007703360408667241</v>
+        <v>-0.005309251604544506</v>
       </c>
       <c r="E13">
-        <v>0.112453585829569</v>
+        <v>-0.009004136756883101</v>
       </c>
       <c r="F13">
-        <v>-0.01278642184947083</v>
+        <v>-0.1055445249634099</v>
       </c>
       <c r="G13">
-        <v>-0.0001630227544205412</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.02265814177810447</v>
+      </c>
+      <c r="H13">
+        <v>0.04547748401705988</v>
+      </c>
+      <c r="I13">
+        <v>0.006482066119013343</v>
+      </c>
+      <c r="J13">
+        <v>0.05791903470857308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.03328500671327454</v>
+        <v>-0.02824147189433575</v>
       </c>
       <c r="C14">
-        <v>0.02081198963842442</v>
+        <v>-0.01601895949669558</v>
       </c>
       <c r="D14">
-        <v>-0.02739850092236658</v>
+        <v>0.0120103883962572</v>
       </c>
       <c r="E14">
-        <v>0.0329487191536222</v>
+        <v>-0.02568601642797728</v>
       </c>
       <c r="F14">
-        <v>-0.01515174635668109</v>
+        <v>-0.04065723540947996</v>
       </c>
       <c r="G14">
-        <v>0.02231539286045848</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.02925049289225158</v>
+      </c>
+      <c r="H14">
+        <v>0.05148785418828345</v>
+      </c>
+      <c r="I14">
+        <v>0.007298601988131356</v>
+      </c>
+      <c r="J14">
+        <v>0.01491227922889226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.04797711797678839</v>
+        <v>-0.04563878894808712</v>
       </c>
       <c r="C16">
-        <v>0.02791599508794421</v>
+        <v>-0.03251310369491037</v>
       </c>
       <c r="D16">
-        <v>0.01015917761037782</v>
+        <v>0.01100496711340004</v>
       </c>
       <c r="E16">
-        <v>0.03391296709975002</v>
+        <v>-0.005404755292887365</v>
       </c>
       <c r="F16">
-        <v>0.009773023798575397</v>
+        <v>-0.03424513687144777</v>
       </c>
       <c r="G16">
-        <v>0.006646591278271058</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.005332211481034287</v>
+      </c>
+      <c r="H16">
+        <v>0.008741038366517276</v>
+      </c>
+      <c r="I16">
+        <v>-0.009247719996752333</v>
+      </c>
+      <c r="J16">
+        <v>0.0398173471410103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>-0.05347502190209073</v>
+        <v>-0.04920031741294317</v>
       </c>
       <c r="C19">
-        <v>0.0404104881698304</v>
+        <v>-0.039797512336688</v>
       </c>
       <c r="D19">
-        <v>0.003525738415719383</v>
+        <v>0.0135593024891127</v>
       </c>
       <c r="E19">
-        <v>0.07818575053732529</v>
+        <v>-0.01781186941685949</v>
       </c>
       <c r="F19">
-        <v>0.01486824079055359</v>
+        <v>-0.08030672237287399</v>
       </c>
       <c r="G19">
-        <v>0.03039388659495095</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.01174146332692509</v>
+      </c>
+      <c r="H19">
+        <v>0.08321023720967366</v>
+      </c>
+      <c r="I19">
+        <v>0.03360604164191538</v>
+      </c>
+      <c r="J19">
+        <v>0.05092708076569109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.03474758324227334</v>
+        <v>-0.01861793178562906</v>
       </c>
       <c r="C20">
-        <v>0.04399183251510849</v>
+        <v>-0.02625214113482434</v>
       </c>
       <c r="D20">
-        <v>-0.01266295307287848</v>
+        <v>0.01782285083035209</v>
       </c>
       <c r="E20">
-        <v>0.06927537056685032</v>
+        <v>-0.01890105350848064</v>
       </c>
       <c r="F20">
-        <v>0.01106839854618965</v>
+        <v>-0.0663367272006702</v>
       </c>
       <c r="G20">
-        <v>0.007940714313930453</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.01495094430749112</v>
+      </c>
+      <c r="H20">
+        <v>0.06958153947261271</v>
+      </c>
+      <c r="I20">
+        <v>0.02034509459235359</v>
+      </c>
+      <c r="J20">
+        <v>0.07786007971237485</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.038832660525096</v>
+        <v>-0.02714792826905641</v>
       </c>
       <c r="C21">
-        <v>0.03344766636075645</v>
+        <v>-0.02610334211220867</v>
       </c>
       <c r="D21">
-        <v>0.0002038808815184437</v>
+        <v>0.0250022420837675</v>
       </c>
       <c r="E21">
-        <v>0.1079332257784827</v>
+        <v>-0.008102965559731112</v>
       </c>
       <c r="F21">
-        <v>-0.04565471776592559</v>
+        <v>-0.07896425072787376</v>
       </c>
       <c r="G21">
-        <v>-0.007509750416952597</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.03572692450247967</v>
+      </c>
+      <c r="H21">
+        <v>0.02233888536776869</v>
+      </c>
+      <c r="I21">
+        <v>-0.01353549390147257</v>
+      </c>
+      <c r="J21">
+        <v>0.0287202744918396</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.05102941934767795</v>
+        <v>-0.04427084358394795</v>
       </c>
       <c r="C24">
-        <v>0.02134972036821133</v>
+        <v>-0.0220343874400495</v>
       </c>
       <c r="D24">
-        <v>0.002112000707878032</v>
+        <v>0.006687243661733518</v>
       </c>
       <c r="E24">
-        <v>0.04634062751540204</v>
+        <v>-0.01051882534503984</v>
       </c>
       <c r="F24">
-        <v>0.009402847803073971</v>
+        <v>-0.04110415833783542</v>
       </c>
       <c r="G24">
-        <v>-0.001812844526154508</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.004438576607938034</v>
+      </c>
+      <c r="H24">
+        <v>0.00808240955409038</v>
+      </c>
+      <c r="I24">
+        <v>-0.006337672702744818</v>
+      </c>
+      <c r="J24">
+        <v>0.04486923197994282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.05182917670086788</v>
+        <v>-0.04735427660701049</v>
       </c>
       <c r="C25">
-        <v>0.0103523787013821</v>
+        <v>-0.02083136007111051</v>
       </c>
       <c r="D25">
-        <v>0.004645623710164744</v>
+        <v>0.004961929419608413</v>
       </c>
       <c r="E25">
-        <v>0.0427194943780345</v>
+        <v>-0.008730131326598405</v>
       </c>
       <c r="F25">
-        <v>-0.004804713306243089</v>
+        <v>-0.04442881140433658</v>
       </c>
       <c r="G25">
-        <v>0.001646582652688599</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.004843352528137067</v>
+      </c>
+      <c r="H25">
+        <v>-0.001004490630938776</v>
+      </c>
+      <c r="I25">
+        <v>-0.0118759250192258</v>
+      </c>
+      <c r="J25">
+        <v>0.03856222491108189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.01881793636390348</v>
+        <v>-0.01655128965638991</v>
       </c>
       <c r="C26">
-        <v>0.02803105742243114</v>
+        <v>-0.02267008271418357</v>
       </c>
       <c r="D26">
-        <v>-0.003639611453572758</v>
+        <v>0.004288904235559153</v>
       </c>
       <c r="E26">
-        <v>0.0401428907364219</v>
+        <v>2.930763687769285e-05</v>
       </c>
       <c r="F26">
-        <v>-0.02276136427094687</v>
+        <v>-0.04719950130611427</v>
       </c>
       <c r="G26">
-        <v>0.02369595988598079</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.02261070317893913</v>
+      </c>
+      <c r="H26">
+        <v>0.03292373747468096</v>
+      </c>
+      <c r="I26">
+        <v>-0.006210894336469605</v>
+      </c>
+      <c r="J26">
+        <v>0.0370923874418454</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>-0.1145460951088065</v>
+        <v>-0.07724584710571893</v>
       </c>
       <c r="C27">
-        <v>0.03251567321471256</v>
+        <v>-0.02422810404695253</v>
       </c>
       <c r="D27">
-        <v>-0.02038514766477317</v>
+        <v>0.01258516757018745</v>
       </c>
       <c r="E27">
-        <v>0.09882792921119515</v>
+        <v>-0.03406080171788765</v>
       </c>
       <c r="F27">
-        <v>-0.004715155171009211</v>
+        <v>-0.0680233703403374</v>
       </c>
       <c r="G27">
-        <v>-0.009934873839977834</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.01733855058089308</v>
+      </c>
+      <c r="H27">
+        <v>0.01412759419185766</v>
+      </c>
+      <c r="I27">
+        <v>0.02527390625223447</v>
+      </c>
+      <c r="J27">
+        <v>0.04121798466287975</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.00957955794728451</v>
+        <v>-0.03789950159207581</v>
       </c>
       <c r="C28">
-        <v>-0.2418256832033686</v>
+        <v>0.2200995976258952</v>
       </c>
       <c r="D28">
-        <v>0.0307867008274857</v>
+        <v>-0.08917185597290174</v>
       </c>
       <c r="E28">
-        <v>0.04868089235090755</v>
+        <v>0.04526287075898883</v>
       </c>
       <c r="F28">
-        <v>-0.03017402646414629</v>
+        <v>-0.05734620650653891</v>
       </c>
       <c r="G28">
-        <v>-0.0004971239429113459</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.02395097223763725</v>
+      </c>
+      <c r="H28">
+        <v>-0.001920848983993227</v>
+      </c>
+      <c r="I28">
+        <v>0.1555008791462174</v>
+      </c>
+      <c r="J28">
+        <v>-0.0007694507975521148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.02280240817973069</v>
+        <v>-0.02271686417142564</v>
       </c>
       <c r="C29">
-        <v>0.02471434776051366</v>
+        <v>-0.01489299632059677</v>
       </c>
       <c r="D29">
-        <v>-0.02982491613118679</v>
+        <v>0.01646985268423784</v>
       </c>
       <c r="E29">
-        <v>0.03410604528938425</v>
+        <v>-0.02587981215330824</v>
       </c>
       <c r="F29">
-        <v>-0.01682540233708589</v>
+        <v>-0.03539898258968576</v>
       </c>
       <c r="G29">
-        <v>0.009205260534471864</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03096530279625809</v>
+      </c>
+      <c r="H29">
+        <v>0.04907099849139772</v>
+      </c>
+      <c r="I29">
+        <v>0.001312067361944397</v>
+      </c>
+      <c r="J29">
+        <v>0.009166505807807162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.1156609771151207</v>
+        <v>-0.09286200903921563</v>
       </c>
       <c r="C30">
-        <v>0.02107860415135502</v>
+        <v>-0.05674345089039475</v>
       </c>
       <c r="D30">
-        <v>-0.02578555232514182</v>
+        <v>-0.02000958948875876</v>
       </c>
       <c r="E30">
-        <v>0.1102765000945214</v>
+        <v>-0.03105481169956003</v>
       </c>
       <c r="F30">
-        <v>0.01155836062119549</v>
+        <v>-0.1028519513263905</v>
       </c>
       <c r="G30">
-        <v>0.02136441519694079</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.01378499754750775</v>
+      </c>
+      <c r="H30">
+        <v>0.02111129661252989</v>
+      </c>
+      <c r="I30">
+        <v>-0.0132506291781912</v>
+      </c>
+      <c r="J30">
+        <v>0.03356500980007121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.06629224115386072</v>
+        <v>-0.06286346623900808</v>
       </c>
       <c r="C31">
-        <v>0.0151843425165544</v>
+        <v>-0.02223249307317669</v>
       </c>
       <c r="D31">
-        <v>-0.01734054282868874</v>
+        <v>-0.004384598037606677</v>
       </c>
       <c r="E31">
-        <v>-0.01695534692022361</v>
+        <v>-0.02202866009656248</v>
       </c>
       <c r="F31">
-        <v>-0.02088276356720786</v>
+        <v>-0.002234982426568509</v>
       </c>
       <c r="G31">
-        <v>0.05189228125440471</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.04190593899785987</v>
+      </c>
+      <c r="H31">
+        <v>0.03025352415077798</v>
+      </c>
+      <c r="I31">
+        <v>0.01272421216697631</v>
+      </c>
+      <c r="J31">
+        <v>0.01340087230675626</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.06454201092851732</v>
+        <v>-0.04552099038024943</v>
       </c>
       <c r="C32">
-        <v>0.03762408832260195</v>
+        <v>-0.04190300050348909</v>
       </c>
       <c r="D32">
-        <v>-0.0108034511252145</v>
+        <v>0.03171638751993595</v>
       </c>
       <c r="E32">
-        <v>0.1074353498893039</v>
+        <v>-0.02936457750969773</v>
       </c>
       <c r="F32">
-        <v>0.01053418933772064</v>
+        <v>-0.08740491687170447</v>
       </c>
       <c r="G32">
-        <v>0.01956673360903451</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.01412660955713185</v>
+      </c>
+      <c r="H32">
+        <v>0.03726061448476185</v>
+      </c>
+      <c r="I32">
+        <v>0.02259132404822478</v>
+      </c>
+      <c r="J32">
+        <v>0.04880055108835829</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.06822834875787262</v>
+        <v>-0.05801562938157587</v>
       </c>
       <c r="C33">
-        <v>0.04618955434220125</v>
+        <v>-0.05413047162355471</v>
       </c>
       <c r="D33">
-        <v>-0.01008942288380377</v>
+        <v>0.0005468923829968274</v>
       </c>
       <c r="E33">
-        <v>0.07764909399245701</v>
+        <v>-0.0117105143116009</v>
       </c>
       <c r="F33">
-        <v>-0.04558715995466291</v>
+        <v>-0.0769099499621112</v>
       </c>
       <c r="G33">
-        <v>0.01032437540598788</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.03670372374604844</v>
+      </c>
+      <c r="H33">
+        <v>0.03896460497041204</v>
+      </c>
+      <c r="I33">
+        <v>-0.01129140648594488</v>
+      </c>
+      <c r="J33">
+        <v>0.05190851380168685</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.04842142484360153</v>
+        <v>-0.0460077610240695</v>
       </c>
       <c r="C34">
-        <v>0.0211111498156627</v>
+        <v>-0.02703196236400025</v>
       </c>
       <c r="D34">
-        <v>-0.001164000085001274</v>
+        <v>0.01394574471626625</v>
       </c>
       <c r="E34">
-        <v>0.02838394850056813</v>
+        <v>-0.01579807320896149</v>
       </c>
       <c r="F34">
-        <v>0.007298909673200749</v>
+        <v>-0.03140085921202201</v>
       </c>
       <c r="G34">
-        <v>0.005088884931783013</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.0006218642693636584</v>
+      </c>
+      <c r="H34">
+        <v>0.0111288980328206</v>
+      </c>
+      <c r="I34">
+        <v>-0.006599763902048778</v>
+      </c>
+      <c r="J34">
+        <v>0.03524669366208189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.01250282048219191</v>
+        <v>-0.01530244998078055</v>
       </c>
       <c r="C36">
-        <v>-0.0003841479899875137</v>
+        <v>-6.985311790459662e-05</v>
       </c>
       <c r="D36">
-        <v>-0.007924917449735504</v>
+        <v>0.005019283340015541</v>
       </c>
       <c r="E36">
-        <v>0.02582155336210675</v>
+        <v>-0.01023306941150044</v>
       </c>
       <c r="F36">
-        <v>-0.01084458043838634</v>
+        <v>-0.02721646149672973</v>
       </c>
       <c r="G36">
-        <v>0.0145096403912961</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02363652551972059</v>
+      </c>
+      <c r="H36">
+        <v>0.02823974720263233</v>
+      </c>
+      <c r="I36">
+        <v>-0.004507398199760524</v>
+      </c>
+      <c r="J36">
+        <v>0.001771252487838266</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.05037048945796167</v>
+        <v>-0.03585531273655367</v>
       </c>
       <c r="C38">
-        <v>0.01658534294796549</v>
+        <v>-0.01032485304348361</v>
       </c>
       <c r="D38">
-        <v>-0.0243436010831605</v>
+        <v>0.006700234780363152</v>
       </c>
       <c r="E38">
-        <v>0.02719203939478997</v>
+        <v>-0.01343273073864629</v>
       </c>
       <c r="F38">
-        <v>5.700488615238859e-05</v>
+        <v>-0.04778337767751408</v>
       </c>
       <c r="G38">
-        <v>-0.02751275200194028</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02872216078064216</v>
+      </c>
+      <c r="H38">
+        <v>0.0144250042938331</v>
+      </c>
+      <c r="I38">
+        <v>-0.01299610008843122</v>
+      </c>
+      <c r="J38">
+        <v>-0.0004643142911193161</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.07404274046284681</v>
+        <v>-0.05857279384958913</v>
       </c>
       <c r="C39">
-        <v>0.01961120115819715</v>
+        <v>-0.04111554097726933</v>
       </c>
       <c r="D39">
-        <v>-0.003310450787464999</v>
+        <v>0.009647043065919094</v>
       </c>
       <c r="E39">
-        <v>0.04406508789229251</v>
+        <v>-0.01685057318291995</v>
       </c>
       <c r="F39">
-        <v>-0.0136558947203669</v>
+        <v>-0.05540834758646748</v>
       </c>
       <c r="G39">
-        <v>0.0003586853533550258</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.01710363633370481</v>
+      </c>
+      <c r="H39">
+        <v>0.001177684442741598</v>
+      </c>
+      <c r="I39">
+        <v>-0.02969683122390211</v>
+      </c>
+      <c r="J39">
+        <v>0.04903413026413612</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.07766942100112396</v>
+        <v>-0.05796625236122051</v>
       </c>
       <c r="C40">
-        <v>0.04331737839779333</v>
+        <v>-0.04519615975466938</v>
       </c>
       <c r="D40">
-        <v>-0.007643587298332333</v>
+        <v>-0.005602003622062288</v>
       </c>
       <c r="E40">
-        <v>0.1084012359063402</v>
+        <v>-0.0239145409551804</v>
       </c>
       <c r="F40">
-        <v>-0.021503424891666</v>
+        <v>-0.09510441993392894</v>
       </c>
       <c r="G40">
-        <v>-0.02402601009492978</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.02422549074978703</v>
+      </c>
+      <c r="H40">
+        <v>0.05217664225446399</v>
+      </c>
+      <c r="I40">
+        <v>0.01512298718232585</v>
+      </c>
+      <c r="J40">
+        <v>0.1180157274996957</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.001653848090459154</v>
+        <v>-0.002949604630640177</v>
       </c>
       <c r="C41">
-        <v>0.0215404762659712</v>
+        <v>-0.01263684335995043</v>
       </c>
       <c r="D41">
-        <v>-0.02787666915635871</v>
+        <v>0.005937224515140655</v>
       </c>
       <c r="E41">
-        <v>0.01407398422147722</v>
+        <v>-0.009082082045120645</v>
       </c>
       <c r="F41">
-        <v>-0.03407320180092654</v>
+        <v>-0.01440686711921998</v>
       </c>
       <c r="G41">
-        <v>0.01274348692267799</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.03749971423177245</v>
+      </c>
+      <c r="H41">
+        <v>0.03033921334633327</v>
+      </c>
+      <c r="I41">
+        <v>0.02249194932875451</v>
+      </c>
+      <c r="J41">
+        <v>0.00983141465333285</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>-0.1395518024570061</v>
+        <v>-0.2288476428602548</v>
       </c>
       <c r="C42">
-        <v>0.209899833159051</v>
+        <v>-0.2165538812157317</v>
       </c>
       <c r="D42">
-        <v>0.9245181960107511</v>
+        <v>0.02413534070008471</v>
       </c>
       <c r="E42">
-        <v>-0.1091996237499729</v>
+        <v>0.9214741156452017</v>
       </c>
       <c r="F42">
-        <v>0.01213928803042659</v>
+        <v>0.1496099402064617</v>
       </c>
       <c r="G42">
-        <v>0.1304375647860557</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.001801246917372234</v>
+      </c>
+      <c r="H42">
+        <v>-0.001638463949759187</v>
+      </c>
+      <c r="I42">
+        <v>0.04625743407680638</v>
+      </c>
+      <c r="J42">
+        <v>0.02805829074393583</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.003083581601699923</v>
+        <v>-0.006142422457528208</v>
       </c>
       <c r="C43">
-        <v>0.02258239526853964</v>
+        <v>-0.01457474644236907</v>
       </c>
       <c r="D43">
-        <v>-0.01858928828000385</v>
+        <v>0.003693724448240422</v>
       </c>
       <c r="E43">
-        <v>0.03703763336813395</v>
+        <v>-0.009197872826548586</v>
       </c>
       <c r="F43">
-        <v>-0.01211623238975847</v>
+        <v>-0.02887367922406257</v>
       </c>
       <c r="G43">
-        <v>0.01859479059130424</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.02199622766968223</v>
+      </c>
+      <c r="H43">
+        <v>0.02998873437630437</v>
+      </c>
+      <c r="I43">
+        <v>0.01259303967052394</v>
+      </c>
+      <c r="J43">
+        <v>0.01893871195611075</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.04154067866533406</v>
+        <v>-0.03097370253217486</v>
       </c>
       <c r="C44">
-        <v>0.05079733396291021</v>
+        <v>-0.03896881453953418</v>
       </c>
       <c r="D44">
-        <v>-0.01345495346041757</v>
+        <v>0.01691626298544888</v>
       </c>
       <c r="E44">
-        <v>0.1270215259569774</v>
+        <v>-0.0093347966224558</v>
       </c>
       <c r="F44">
-        <v>-0.08840417326854427</v>
+        <v>-0.1217282029019724</v>
       </c>
       <c r="G44">
-        <v>0.02090389589726483</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.06394575678787455</v>
+      </c>
+      <c r="H44">
+        <v>0.102357748868429</v>
+      </c>
+      <c r="I44">
+        <v>0.01832209070850672</v>
+      </c>
+      <c r="J44">
+        <v>0.03322894447276779</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.02897677856719419</v>
+        <v>-0.025908211001196</v>
       </c>
       <c r="C46">
-        <v>0.02585282297812584</v>
+        <v>-0.03315277325582191</v>
       </c>
       <c r="D46">
-        <v>-0.03131644680434367</v>
+        <v>0.01056198367649203</v>
       </c>
       <c r="E46">
-        <v>0.03492771887961336</v>
+        <v>-0.02835181954180363</v>
       </c>
       <c r="F46">
-        <v>-0.029438371507394</v>
+        <v>-0.04790450098240578</v>
       </c>
       <c r="G46">
-        <v>0.01849098622365764</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.02768033704311316</v>
+      </c>
+      <c r="H46">
+        <v>0.05093875507875321</v>
+      </c>
+      <c r="I46">
+        <v>7.57087250211901e-05</v>
+      </c>
+      <c r="J46">
+        <v>0.01994526763086121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.09024873571539667</v>
+        <v>-0.09142051433587882</v>
       </c>
       <c r="C47">
-        <v>0.01243035938636358</v>
+        <v>-0.01526351546522124</v>
       </c>
       <c r="D47">
-        <v>-0.01593458096973174</v>
+        <v>-0.001741159444659146</v>
       </c>
       <c r="E47">
-        <v>-0.01862054620951413</v>
+        <v>-0.0247816329405773</v>
       </c>
       <c r="F47">
-        <v>-0.01587978460420807</v>
+        <v>0.01075104284519585</v>
       </c>
       <c r="G47">
-        <v>0.02207324453513018</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.04314422586907755</v>
+      </c>
+      <c r="H47">
+        <v>0.05386335963828486</v>
+      </c>
+      <c r="I47">
+        <v>0.01926985940247661</v>
+      </c>
+      <c r="J47">
+        <v>0.02571363328553116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.01811887956887789</v>
+        <v>-0.01907629262577773</v>
       </c>
       <c r="C48">
-        <v>0.02367593791609911</v>
+        <v>-0.01728096559203693</v>
       </c>
       <c r="D48">
-        <v>-0.0145465624228379</v>
+        <v>0.008351651450526028</v>
       </c>
       <c r="E48">
-        <v>0.03213507177737741</v>
+        <v>-0.01320148558291008</v>
       </c>
       <c r="F48">
-        <v>-0.01081780920542049</v>
+        <v>-0.03026304358915691</v>
       </c>
       <c r="G48">
-        <v>0.005035420850105876</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.01579040672683881</v>
+      </c>
+      <c r="H48">
+        <v>0.02142266005472187</v>
+      </c>
+      <c r="I48">
+        <v>0.0113378632557722</v>
+      </c>
+      <c r="J48">
+        <v>0.0132462537723717</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.09315666125202456</v>
+        <v>-0.09032901103721859</v>
       </c>
       <c r="C50">
-        <v>0.03897526321429215</v>
+        <v>-0.03009148644504338</v>
       </c>
       <c r="D50">
-        <v>-0.02904598217334765</v>
+        <v>0.02167843811112318</v>
       </c>
       <c r="E50">
-        <v>-0.01776712953903032</v>
+        <v>-0.02554612123081008</v>
       </c>
       <c r="F50">
-        <v>-0.004678715407719806</v>
+        <v>0.005586352222724138</v>
       </c>
       <c r="G50">
-        <v>0.04678827394788558</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.001415652109150901</v>
+      </c>
+      <c r="H50">
+        <v>0.03629718870908451</v>
+      </c>
+      <c r="I50">
+        <v>-0.004867457031135974</v>
+      </c>
+      <c r="J50">
+        <v>0.008745092260164044</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.05578897197941013</v>
+        <v>-0.03977859606365052</v>
       </c>
       <c r="C51">
-        <v>-0.02024620202593584</v>
+        <v>0.002543793925445403</v>
       </c>
       <c r="D51">
-        <v>0.004273303466892481</v>
+        <v>-0.01550892603460335</v>
       </c>
       <c r="E51">
-        <v>0.08098150940527842</v>
+        <v>-0.00888994445227752</v>
       </c>
       <c r="F51">
-        <v>-0.0554715220413983</v>
+        <v>-0.09758754709879772</v>
       </c>
       <c r="G51">
-        <v>0.04800818887567189</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.0517471911380108</v>
+      </c>
+      <c r="H51">
+        <v>0.05006272023142688</v>
+      </c>
+      <c r="I51">
+        <v>0.01570314368426005</v>
+      </c>
+      <c r="J51">
+        <v>0.04514937510084585</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.1428322809792582</v>
+        <v>-0.1270318628016495</v>
       </c>
       <c r="C53">
-        <v>0.01496302956256866</v>
+        <v>-0.03299472891961112</v>
       </c>
       <c r="D53">
-        <v>-0.0503423781629468</v>
+        <v>0.003637563501241284</v>
       </c>
       <c r="E53">
-        <v>-0.04955848015568616</v>
+        <v>-0.05245436285926526</v>
       </c>
       <c r="F53">
-        <v>-0.007235522098710746</v>
+        <v>0.04123783867399874</v>
       </c>
       <c r="G53">
-        <v>0.03442337502650086</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.02236410064081716</v>
+      </c>
+      <c r="H53">
+        <v>-0.002193769987734792</v>
+      </c>
+      <c r="I53">
+        <v>0.03618083537871335</v>
+      </c>
+      <c r="J53">
+        <v>0.03550375536184244</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.02565480248041067</v>
+        <v>-0.02493972700800633</v>
       </c>
       <c r="C54">
-        <v>0.005499821495388481</v>
+        <v>-0.000776543006615972</v>
       </c>
       <c r="D54">
-        <v>-0.02485036224335745</v>
+        <v>0.005685650924669657</v>
       </c>
       <c r="E54">
-        <v>0.03671478735995572</v>
+        <v>-0.02616629000787971</v>
       </c>
       <c r="F54">
-        <v>-0.05001276774394451</v>
+        <v>-0.03609373005698352</v>
       </c>
       <c r="G54">
-        <v>0.0002535164997189414</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.05278760015162622</v>
+      </c>
+      <c r="H54">
+        <v>0.04225089654426185</v>
+      </c>
+      <c r="I54">
+        <v>0.02669179764091315</v>
+      </c>
+      <c r="J54">
+        <v>-0.005213810307739677</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.1013802094605006</v>
+        <v>-0.1002923098979198</v>
       </c>
       <c r="C55">
-        <v>-0.0006772481221184939</v>
+        <v>-0.01555204543148889</v>
       </c>
       <c r="D55">
-        <v>-0.03701033930528055</v>
+        <v>0.01623007400957821</v>
       </c>
       <c r="E55">
-        <v>-0.00982856077614821</v>
+        <v>-0.03455908464605966</v>
       </c>
       <c r="F55">
-        <v>0.03401486992256702</v>
+        <v>0.02697235401284435</v>
       </c>
       <c r="G55">
-        <v>-0.006196248891215399</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.006250232677112381</v>
+      </c>
+      <c r="H55">
+        <v>0.0112690421410313</v>
+      </c>
+      <c r="I55">
+        <v>0.01878490763056154</v>
+      </c>
+      <c r="J55">
+        <v>0.03096752750044984</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.178042128094753</v>
+        <v>-0.1671764531310987</v>
       </c>
       <c r="C56">
-        <v>-0.0110230912042112</v>
+        <v>-0.009735723285298292</v>
       </c>
       <c r="D56">
-        <v>-0.088293813708111</v>
+        <v>0.001765561322417635</v>
       </c>
       <c r="E56">
-        <v>-0.1001334615548742</v>
+        <v>-0.08770409098210978</v>
       </c>
       <c r="F56">
-        <v>0.07074564668949358</v>
+        <v>0.08496641563893632</v>
       </c>
       <c r="G56">
-        <v>0.01265330328259591</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.02864156232490481</v>
+      </c>
+      <c r="H56">
+        <v>-0.04299369287099506</v>
+      </c>
+      <c r="I56">
+        <v>0.0303915147644389</v>
+      </c>
+      <c r="J56">
+        <v>0.04016146842654988</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>-0.09056556592352066</v>
+        <v>-0.06777130176148506</v>
       </c>
       <c r="C57">
-        <v>0.03055084710830559</v>
+        <v>-0.0370517361104782</v>
       </c>
       <c r="D57">
-        <v>-0.02953557291285843</v>
+        <v>-0.005788678868737424</v>
       </c>
       <c r="E57">
-        <v>0.04230266399701313</v>
+        <v>-0.009393740478494589</v>
       </c>
       <c r="F57">
-        <v>-0.036043755843504</v>
+        <v>-0.06542724293026686</v>
       </c>
       <c r="G57">
-        <v>0.04158849261850629</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.02546840940856046</v>
+      </c>
+      <c r="H57">
+        <v>0.03071138982526784</v>
+      </c>
+      <c r="I57">
+        <v>-0.01098220053850666</v>
+      </c>
+      <c r="J57">
+        <v>0.03783265300918985</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.1845182916409137</v>
+        <v>-0.2070248158222111</v>
       </c>
       <c r="C58">
-        <v>0.0318232419721337</v>
+        <v>-0.1116773896878778</v>
       </c>
       <c r="D58">
-        <v>0.02050136960195563</v>
+        <v>-0.05356699684407296</v>
       </c>
       <c r="E58">
-        <v>0.1227600519249832</v>
+        <v>0.006014729686943789</v>
       </c>
       <c r="F58">
-        <v>0.06301414908554634</v>
+        <v>-0.231135027311946</v>
       </c>
       <c r="G58">
-        <v>0.05123647469075252</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1600897461002848</v>
+      </c>
+      <c r="H58">
+        <v>0.3740853117307852</v>
+      </c>
+      <c r="I58">
+        <v>-0.1592711388589964</v>
+      </c>
+      <c r="J58">
+        <v>-0.7616386490040364</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.01719570488800401</v>
+        <v>-0.04003093418887994</v>
       </c>
       <c r="C59">
-        <v>-0.1960787037888466</v>
+        <v>0.1774937122453682</v>
       </c>
       <c r="D59">
-        <v>-0.0001650469763654257</v>
+        <v>-0.09081458746911374</v>
       </c>
       <c r="E59">
-        <v>0.06355906823035361</v>
+        <v>0.007639956942591403</v>
       </c>
       <c r="F59">
-        <v>-0.01391588327492639</v>
+        <v>-0.07253982284582602</v>
       </c>
       <c r="G59">
-        <v>-0.00247391061314804</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.0006673647014262545</v>
+      </c>
+      <c r="H59">
+        <v>-0.0258264470187693</v>
+      </c>
+      <c r="I59">
+        <v>0.05960435885431827</v>
+      </c>
+      <c r="J59">
+        <v>-0.009915324379683225</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.1924015807668374</v>
+        <v>-0.1847283387801905</v>
       </c>
       <c r="C60">
-        <v>-0.08731827410956376</v>
+        <v>0.02961710716802575</v>
       </c>
       <c r="D60">
-        <v>-0.004665219152562434</v>
+        <v>-0.06770311144425011</v>
       </c>
       <c r="E60">
-        <v>0.1873554929064822</v>
+        <v>-0.0116719097604363</v>
       </c>
       <c r="F60">
-        <v>-0.04346289377361823</v>
+        <v>-0.2126218208107557</v>
       </c>
       <c r="G60">
-        <v>0.004513434752813609</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.07294444935618349</v>
+      </c>
+      <c r="H60">
+        <v>-0.2743971366768057</v>
+      </c>
+      <c r="I60">
+        <v>-0.09822320807129964</v>
+      </c>
+      <c r="J60">
+        <v>0.02314465311783168</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.04427646443266631</v>
+        <v>-0.03772917156250584</v>
       </c>
       <c r="C61">
-        <v>0.01080304199752288</v>
+        <v>-0.02428387828649912</v>
       </c>
       <c r="D61">
-        <v>0.0004562753099990235</v>
+        <v>0.009728874963344986</v>
       </c>
       <c r="E61">
-        <v>0.0386455623351363</v>
+        <v>-0.00550224702693829</v>
       </c>
       <c r="F61">
-        <v>-0.006036293881662229</v>
+        <v>-0.03927925052972379</v>
       </c>
       <c r="G61">
-        <v>-0.002427343896307792</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.01052279704672228</v>
+      </c>
+      <c r="H61">
+        <v>-0.003574963950386988</v>
+      </c>
+      <c r="I61">
+        <v>-0.03866468106745758</v>
+      </c>
+      <c r="J61">
+        <v>0.02241401971763721</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.04276944853316766</v>
+        <v>-0.03121405034507678</v>
       </c>
       <c r="C63">
-        <v>0.0116161395777642</v>
+        <v>-0.01760237878600208</v>
       </c>
       <c r="D63">
-        <v>-0.01864952903012732</v>
+        <v>0.004924811453401793</v>
       </c>
       <c r="E63">
-        <v>0.04525829427162095</v>
+        <v>-0.01336556071997604</v>
       </c>
       <c r="F63">
-        <v>-0.01432109107359894</v>
+        <v>-0.02970710221666931</v>
       </c>
       <c r="G63">
-        <v>0.01930150051900855</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01263208721044404</v>
+      </c>
+      <c r="H63">
+        <v>0.04956056048508375</v>
+      </c>
+      <c r="I63">
+        <v>0.03406617392557897</v>
+      </c>
+      <c r="J63">
+        <v>0.03330576729596421</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.0759252507260115</v>
+        <v>-0.05956328309434364</v>
       </c>
       <c r="C64">
-        <v>0.05589137725409677</v>
+        <v>-0.03922614409413286</v>
       </c>
       <c r="D64">
-        <v>-0.06079896797801698</v>
+        <v>0.03008645329206114</v>
       </c>
       <c r="E64">
-        <v>0.05737273748637516</v>
+        <v>-0.04394297362714822</v>
       </c>
       <c r="F64">
-        <v>-0.04702266764584662</v>
+        <v>-0.05020033632468401</v>
       </c>
       <c r="G64">
-        <v>-0.04214374220694147</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.0531228901736159</v>
+      </c>
+      <c r="H64">
+        <v>-0.0120291027954445</v>
+      </c>
+      <c r="I64">
+        <v>0.03201500442772569</v>
+      </c>
+      <c r="J64">
+        <v>0.1041918116495155</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.02022588361987113</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.008974168598567965</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.01040354647436158</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.006362213225579431</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-0.0006431359646609621</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.02134879626949098</v>
+      </c>
+      <c r="H65">
+        <v>-0.005458082774334874</v>
+      </c>
+      <c r="I65">
+        <v>-0.01549180470977829</v>
+      </c>
+      <c r="J65">
+        <v>0.003811482575182223</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.08884741425870017</v>
+        <v>-0.07006291143808725</v>
       </c>
       <c r="C66">
-        <v>0.03362855274505062</v>
+        <v>-0.05508568514450406</v>
       </c>
       <c r="D66">
-        <v>-0.03676511389811694</v>
+        <v>0.005889077729256673</v>
       </c>
       <c r="E66">
-        <v>0.08052033285538482</v>
+        <v>-0.04576764423758738</v>
       </c>
       <c r="F66">
-        <v>-0.0363369329125652</v>
+        <v>-0.0700509671485964</v>
       </c>
       <c r="G66">
-        <v>0.00396187407468183</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.01584342486740622</v>
+      </c>
+      <c r="H66">
+        <v>3.820130006573831e-05</v>
+      </c>
+      <c r="I66">
+        <v>-0.03466506608141833</v>
+      </c>
+      <c r="J66">
+        <v>0.07693011018919348</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.06028587461807944</v>
+        <v>-0.04676182017638304</v>
       </c>
       <c r="C67">
-        <v>-0.01259606616588285</v>
+        <v>0.005692674413339582</v>
       </c>
       <c r="D67">
-        <v>-0.01221134259552104</v>
+        <v>-0.005053336923465834</v>
       </c>
       <c r="E67">
-        <v>0.01974885455306336</v>
+        <v>-0.01018513304827027</v>
       </c>
       <c r="F67">
-        <v>-0.002717255191244143</v>
+        <v>-0.03704330891817111</v>
       </c>
       <c r="G67">
-        <v>-0.0222150695501812</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.0347193969403722</v>
+      </c>
+      <c r="H67">
+        <v>-0.007361763840045582</v>
+      </c>
+      <c r="I67">
+        <v>-0.03839211572910119</v>
+      </c>
+      <c r="J67">
+        <v>0.008662728789845571</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.02460264972995935</v>
+        <v>-0.04668228636160982</v>
       </c>
       <c r="C68">
-        <v>-0.2468432781581568</v>
+        <v>0.2151418191443533</v>
       </c>
       <c r="D68">
-        <v>0.02111379939756203</v>
+        <v>-0.1049480206473198</v>
       </c>
       <c r="E68">
-        <v>0.04537833074427394</v>
+        <v>0.02424049118283538</v>
       </c>
       <c r="F68">
-        <v>-0.01543673292984044</v>
+        <v>-0.05399439815540421</v>
       </c>
       <c r="G68">
-        <v>0.02143745895782934</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.00443540529866686</v>
+      </c>
+      <c r="H68">
+        <v>-0.01355168649833674</v>
+      </c>
+      <c r="I68">
+        <v>0.1631880782426924</v>
+      </c>
+      <c r="J68">
+        <v>-0.07106581574054652</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.07029302312010062</v>
+        <v>-0.07238310001714124</v>
       </c>
       <c r="C69">
-        <v>0.01728296478101764</v>
+        <v>-0.01969444472039864</v>
       </c>
       <c r="D69">
-        <v>-0.02612449789058797</v>
+        <v>0.0002483885222411309</v>
       </c>
       <c r="E69">
-        <v>-0.01399104430933311</v>
+        <v>-0.03057096165251229</v>
       </c>
       <c r="F69">
-        <v>-0.008868874962771271</v>
+        <v>0.001694801520651181</v>
       </c>
       <c r="G69">
-        <v>0.02605325058113226</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02698868060945955</v>
+      </c>
+      <c r="H69">
+        <v>0.02686283508105303</v>
+      </c>
+      <c r="I69">
+        <v>-0.00402164836496777</v>
+      </c>
+      <c r="J69">
+        <v>0.02937890638740741</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>-0.01836263313683123</v>
+        <v>-0.04651751766348474</v>
       </c>
       <c r="C71">
-        <v>-0.2784992958862453</v>
+        <v>0.230101065934768</v>
       </c>
       <c r="D71">
-        <v>0.02441513852586539</v>
+        <v>-0.1176629300199704</v>
       </c>
       <c r="E71">
-        <v>0.07575700162861719</v>
+        <v>0.04513821510347354</v>
       </c>
       <c r="F71">
-        <v>-0.02048851505951719</v>
+        <v>-0.07738645213199985</v>
       </c>
       <c r="G71">
-        <v>0.0241678576892908</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01311816844452879</v>
+      </c>
+      <c r="H71">
+        <v>-0.02478695863554346</v>
+      </c>
+      <c r="I71">
+        <v>0.1313393085809363</v>
+      </c>
+      <c r="J71">
+        <v>-0.03377097277531448</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.1221023993992461</v>
+        <v>-0.127001501109727</v>
       </c>
       <c r="C72">
-        <v>-0.005541794060705838</v>
+        <v>-0.02721610016555943</v>
       </c>
       <c r="D72">
-        <v>-0.04742153131060284</v>
+        <v>0.0005589670185205721</v>
       </c>
       <c r="E72">
-        <v>0.09000027484376175</v>
+        <v>-0.06180309311768661</v>
       </c>
       <c r="F72">
-        <v>0.02103355968419197</v>
+        <v>-0.08323134027425311</v>
       </c>
       <c r="G72">
-        <v>-0.001275074965020985</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.03852538467858072</v>
+      </c>
+      <c r="H72">
+        <v>-0.01918643234442666</v>
+      </c>
+      <c r="I72">
+        <v>-0.07218231875533856</v>
+      </c>
+      <c r="J72">
+        <v>-0.08646209698875874</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.2938596792034586</v>
+        <v>-0.2685158099104619</v>
       </c>
       <c r="C73">
-        <v>-0.1661464993935988</v>
+        <v>0.04308196760527497</v>
       </c>
       <c r="D73">
-        <v>0.06060618512383815</v>
+        <v>-0.1193183550858814</v>
       </c>
       <c r="E73">
-        <v>0.3263665756698371</v>
+        <v>0.02934040949838828</v>
       </c>
       <c r="F73">
-        <v>-0.004032097845180696</v>
+        <v>-0.3138990750650508</v>
       </c>
       <c r="G73">
-        <v>-0.04999793672259193</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1826752384117169</v>
+      </c>
+      <c r="H73">
+        <v>-0.4645863614398734</v>
+      </c>
+      <c r="I73">
+        <v>-0.2824417500801393</v>
+      </c>
+      <c r="J73">
+        <v>0.03503157180109137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.1628173879976727</v>
+        <v>-0.1519498791738737</v>
       </c>
       <c r="C74">
-        <v>0.003374816463325653</v>
+        <v>-0.0251772029550762</v>
       </c>
       <c r="D74">
-        <v>-0.04584243156593795</v>
+        <v>-0.007750961520019663</v>
       </c>
       <c r="E74">
-        <v>-0.03195227000045133</v>
+        <v>-0.05027068315515282</v>
       </c>
       <c r="F74">
-        <v>0.05071577961024823</v>
+        <v>0.05505725723788905</v>
       </c>
       <c r="G74">
-        <v>0.05993519969878904</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.02003595428336676</v>
+      </c>
+      <c r="H74">
+        <v>-0.02937557631983216</v>
+      </c>
+      <c r="I74">
+        <v>0.0208451553752094</v>
+      </c>
+      <c r="J74">
+        <v>0.08880693910467563</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.2337802849505667</v>
+        <v>-0.2435303130849805</v>
       </c>
       <c r="C75">
-        <v>0.000882418568740607</v>
+        <v>-0.02720220939519024</v>
       </c>
       <c r="D75">
-        <v>-0.07386058935735174</v>
+        <v>-0.02430781868112048</v>
       </c>
       <c r="E75">
-        <v>-0.1242619853572563</v>
+        <v>-0.1045747546111328</v>
       </c>
       <c r="F75">
-        <v>0.01503083898152053</v>
+        <v>0.1410458925741035</v>
       </c>
       <c r="G75">
-        <v>0.04549459834779874</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.006186819716919213</v>
+      </c>
+      <c r="H75">
+        <v>-0.02052370760459829</v>
+      </c>
+      <c r="I75">
+        <v>0.08460019463983974</v>
+      </c>
+      <c r="J75">
+        <v>0.0195363189696276</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.2460494370859867</v>
+        <v>-0.2674556490037978</v>
       </c>
       <c r="C76">
-        <v>-0.009839557733304936</v>
+        <v>-0.003924482258813336</v>
       </c>
       <c r="D76">
-        <v>-0.1147112678060616</v>
+        <v>0.009991844799602233</v>
       </c>
       <c r="E76">
-        <v>-0.1312138587286467</v>
+        <v>-0.1312208942067872</v>
       </c>
       <c r="F76">
-        <v>0.06299764791471667</v>
+        <v>0.1886555783573987</v>
       </c>
       <c r="G76">
-        <v>0.03219955222383138</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.05331018167833708</v>
+      </c>
+      <c r="H76">
+        <v>-0.04295792847656646</v>
+      </c>
+      <c r="I76">
+        <v>0.04665363927361631</v>
+      </c>
+      <c r="J76">
+        <v>0.06453263983463593</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.1343430233183726</v>
+        <v>-0.1279519688332414</v>
       </c>
       <c r="C77">
-        <v>0.05626502940860131</v>
+        <v>-0.06184825735672137</v>
       </c>
       <c r="D77">
-        <v>0.03763837994775934</v>
+        <v>0.01394197934675034</v>
       </c>
       <c r="E77">
-        <v>0.155708654523911</v>
+        <v>0.03141354526518458</v>
       </c>
       <c r="F77">
-        <v>-0.02774138675245664</v>
+        <v>-0.1616398896821658</v>
       </c>
       <c r="G77">
-        <v>-0.0436731488923276</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.00155341025566747</v>
+      </c>
+      <c r="H77">
+        <v>0.230906106752832</v>
+      </c>
+      <c r="I77">
+        <v>0.2417187495569164</v>
+      </c>
+      <c r="J77">
+        <v>0.1017217619637853</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.08701676556064483</v>
+        <v>-0.0797633448356857</v>
       </c>
       <c r="C78">
-        <v>0.05255795210760784</v>
+        <v>-0.06780769101536135</v>
       </c>
       <c r="D78">
-        <v>0.01114842615498194</v>
+        <v>0.03188676100421951</v>
       </c>
       <c r="E78">
-        <v>0.05515140410548559</v>
+        <v>-0.009282111913998137</v>
       </c>
       <c r="F78">
-        <v>-0.01016121391000208</v>
+        <v>-0.07233038123500002</v>
       </c>
       <c r="G78">
-        <v>0.01380199736983307</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.01069923626043954</v>
+      </c>
+      <c r="H78">
+        <v>0.0212422517436406</v>
+      </c>
+      <c r="I78">
+        <v>0.02962671587284173</v>
+      </c>
+      <c r="J78">
+        <v>0.04732047285134378</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.0565714754437301</v>
+        <v>-0.1483666794975633</v>
       </c>
       <c r="C80">
-        <v>0.02298518203846595</v>
+        <v>0.4047987283797719</v>
       </c>
       <c r="D80">
-        <v>0.08966828109161958</v>
+        <v>0.8855089738825539</v>
       </c>
       <c r="E80">
-        <v>-0.03590472931866213</v>
+        <v>0.05355503380896946</v>
       </c>
       <c r="F80">
-        <v>0.3141689719946273</v>
+        <v>-0.04839133939145692</v>
       </c>
       <c r="G80">
-        <v>-0.9109935841339947</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.04418848599151751</v>
+      </c>
+      <c r="H80">
+        <v>-0.0546103834321545</v>
+      </c>
+      <c r="I80">
+        <v>-0.02917221816029762</v>
+      </c>
+      <c r="J80">
+        <v>-0.09731362285770212</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.1632423651964316</v>
+        <v>-0.1791967626901216</v>
       </c>
       <c r="C81">
-        <v>-0.003366196887721065</v>
+        <v>-0.003986067164543067</v>
       </c>
       <c r="D81">
-        <v>-0.06655755946718797</v>
+        <v>-0.008614486408478466</v>
       </c>
       <c r="E81">
-        <v>-0.1570275913697656</v>
+        <v>-0.08583043610079395</v>
       </c>
       <c r="F81">
-        <v>0.06965712676376895</v>
+        <v>0.1560980400888158</v>
       </c>
       <c r="G81">
-        <v>0.05729574502741139</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.02979356524919572</v>
+      </c>
+      <c r="H81">
+        <v>-0.01048362875213181</v>
+      </c>
+      <c r="I81">
+        <v>0.05705904831208238</v>
+      </c>
+      <c r="J81">
+        <v>0.002322862484531809</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.09413154939021272</v>
+        <v>-0.07014371045931966</v>
       </c>
       <c r="C83">
-        <v>0.06123785623329652</v>
+        <v>-0.05173993722386534</v>
       </c>
       <c r="D83">
-        <v>0.06707670599530625</v>
+        <v>0.005092548582813834</v>
       </c>
       <c r="E83">
-        <v>0.01810972812542217</v>
+        <v>0.03701997148479038</v>
       </c>
       <c r="F83">
-        <v>-0.06493887202389037</v>
+        <v>-0.04553210914529107</v>
       </c>
       <c r="G83">
-        <v>0.01282609656242651</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.05923036910802921</v>
+      </c>
+      <c r="H83">
+        <v>0.02657669945307968</v>
+      </c>
+      <c r="I83">
+        <v>0.01928827768912983</v>
+      </c>
+      <c r="J83">
+        <v>0.07970247795500131</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.2373469248933215</v>
+        <v>-0.2514440096845716</v>
       </c>
       <c r="C85">
-        <v>0.05226799578222342</v>
+        <v>-0.04727918362825546</v>
       </c>
       <c r="D85">
-        <v>-0.06416412090476661</v>
+        <v>0.008309780664588089</v>
       </c>
       <c r="E85">
-        <v>-0.1688610730051367</v>
+        <v>-0.09681070628002013</v>
       </c>
       <c r="F85">
-        <v>0.05173530165433528</v>
+        <v>0.188906071992701</v>
       </c>
       <c r="G85">
-        <v>0.01880103497830344</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.006885780753128578</v>
+      </c>
+      <c r="H85">
+        <v>0.0215501353251047</v>
+      </c>
+      <c r="I85">
+        <v>0.0509018510460016</v>
+      </c>
+      <c r="J85">
+        <v>0.07006694461715439</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.04094425690155125</v>
+        <v>-0.02619359062189649</v>
       </c>
       <c r="C86">
-        <v>0.05657925977234459</v>
+        <v>-0.05785981842251894</v>
       </c>
       <c r="D86">
-        <v>-0.01894878974039163</v>
+        <v>0.02437208037227944</v>
       </c>
       <c r="E86">
-        <v>0.06448203383196316</v>
+        <v>-0.01197961505428766</v>
       </c>
       <c r="F86">
-        <v>0.004153399780976444</v>
+        <v>-0.06589708171456714</v>
       </c>
       <c r="G86">
-        <v>0.01672622202220077</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.007591711065831469</v>
+      </c>
+      <c r="H86">
+        <v>0.06718543100176128</v>
+      </c>
+      <c r="I86">
+        <v>0.02244651179092006</v>
+      </c>
+      <c r="J86">
+        <v>0.03854792743061523</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.02909451457943954</v>
+        <v>-0.03423033804153403</v>
       </c>
       <c r="C87">
-        <v>-0.05013371170942733</v>
+        <v>0.008791015823628434</v>
       </c>
       <c r="D87">
-        <v>0.0006038121409698997</v>
+        <v>-0.006679911529147584</v>
       </c>
       <c r="E87">
-        <v>0.09150352004431002</v>
+        <v>-0.005905865317785624</v>
       </c>
       <c r="F87">
-        <v>0.02835074582651192</v>
+        <v>-0.09896304938637146</v>
       </c>
       <c r="G87">
-        <v>0.01085145631293589</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.02613951105429231</v>
+      </c>
+      <c r="H87">
+        <v>0.01492578222444659</v>
+      </c>
+      <c r="I87">
+        <v>-0.0152983410860751</v>
+      </c>
+      <c r="J87">
+        <v>0.02058521595295728</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.0391544726433804</v>
+        <v>-0.02981333526860866</v>
       </c>
       <c r="C88">
-        <v>0.03321175916327015</v>
+        <v>-0.0172348456129236</v>
       </c>
       <c r="D88">
-        <v>-0.006185681691441386</v>
+        <v>0.01788600747371393</v>
       </c>
       <c r="E88">
-        <v>-0.007519092480075633</v>
+        <v>-0.01011956730951898</v>
       </c>
       <c r="F88">
-        <v>0.01238386956734733</v>
+        <v>0.01345174360987427</v>
       </c>
       <c r="G88">
-        <v>0.007000929923833361</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.03828621245731437</v>
+      </c>
+      <c r="H88">
+        <v>0.03489036253472947</v>
+      </c>
+      <c r="I88">
+        <v>-0.02421602250788787</v>
+      </c>
+      <c r="J88">
+        <v>0.0245982027934354</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.02032752018554679</v>
+        <v>-0.06592134959035738</v>
       </c>
       <c r="C89">
-        <v>-0.4028698378284447</v>
+        <v>0.3465735170852162</v>
       </c>
       <c r="D89">
-        <v>0.09976779595230012</v>
+        <v>-0.1863353842908366</v>
       </c>
       <c r="E89">
-        <v>0.008614402583488836</v>
+        <v>0.06705500775571357</v>
       </c>
       <c r="F89">
-        <v>-0.03164848160847997</v>
+        <v>-0.03725921448335476</v>
       </c>
       <c r="G89">
-        <v>0.02671706471956037</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.0369757764994107</v>
+      </c>
+      <c r="H89">
+        <v>0.05379569732283004</v>
+      </c>
+      <c r="I89">
+        <v>0.2600072476671606</v>
+      </c>
+      <c r="J89">
+        <v>-0.0599653204185139</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.01960759483112877</v>
+        <v>-0.04632665649287852</v>
       </c>
       <c r="C90">
-        <v>-0.3076614230603319</v>
+        <v>0.300871734697415</v>
       </c>
       <c r="D90">
-        <v>0.05066036140434666</v>
+        <v>-0.1430959520716154</v>
       </c>
       <c r="E90">
-        <v>0.04715534158822352</v>
+        <v>0.05152406662927629</v>
       </c>
       <c r="F90">
-        <v>-0.03346221837600265</v>
+        <v>-0.03612694032724138</v>
       </c>
       <c r="G90">
-        <v>0.02492996568503951</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.01995591417103171</v>
+      </c>
+      <c r="H90">
+        <v>0.009854994117668221</v>
+      </c>
+      <c r="I90">
+        <v>0.2204774104336592</v>
+      </c>
+      <c r="J90">
+        <v>-0.04039196322496284</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.2725019429337307</v>
+        <v>-0.2921070807398254</v>
       </c>
       <c r="C91">
-        <v>0.03597698545743901</v>
+        <v>-0.03911391513452976</v>
       </c>
       <c r="D91">
-        <v>-0.07227658570789697</v>
+        <v>-0.005135408357376519</v>
       </c>
       <c r="E91">
-        <v>-0.2669878966445227</v>
+        <v>-0.09011982923651661</v>
       </c>
       <c r="F91">
-        <v>0.06425482219248996</v>
+        <v>0.2797607633265591</v>
       </c>
       <c r="G91">
-        <v>0.001008102556695287</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.02546156273269238</v>
+      </c>
+      <c r="H91">
+        <v>-0.004373603643904303</v>
+      </c>
+      <c r="I91">
+        <v>0.1036504938312786</v>
+      </c>
+      <c r="J91">
+        <v>0.04617340898541221</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.04965546056930228</v>
+        <v>-0.1061243968925933</v>
       </c>
       <c r="C92">
-        <v>-0.4055024103871927</v>
+        <v>0.3988990118867632</v>
       </c>
       <c r="D92">
-        <v>0.159768440465847</v>
+        <v>-0.1642549235160326</v>
       </c>
       <c r="E92">
-        <v>-0.0865264799389216</v>
+        <v>0.08418341486960761</v>
       </c>
       <c r="F92">
-        <v>0.06391834484615747</v>
+        <v>0.1275850259389204</v>
       </c>
       <c r="G92">
-        <v>-0.06197883999618384</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.08709963204153975</v>
+      </c>
+      <c r="H92">
+        <v>0.4305583310007428</v>
+      </c>
+      <c r="I92">
+        <v>-0.6839573691163576</v>
+      </c>
+      <c r="J92">
+        <v>0.2980959893596546</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.009225819172354021</v>
+        <v>-0.05180992986458174</v>
       </c>
       <c r="C93">
-        <v>-0.37442102236233</v>
+        <v>0.3600594488883616</v>
       </c>
       <c r="D93">
-        <v>0.07979976680727754</v>
+        <v>-0.1867321137215721</v>
       </c>
       <c r="E93">
-        <v>-0.025174938728384</v>
+        <v>0.0854922362485834</v>
       </c>
       <c r="F93">
-        <v>0.00165606514886069</v>
+        <v>-0.005105644626758764</v>
       </c>
       <c r="G93">
-        <v>-0.0202352030214194</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03211418478358039</v>
+      </c>
+      <c r="H93">
+        <v>-0.01984600092695589</v>
+      </c>
+      <c r="I93">
+        <v>0.1608677256135015</v>
+      </c>
+      <c r="J93">
+        <v>-0.0636232592631166</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.2854611999597268</v>
+        <v>-0.304131236118075</v>
       </c>
       <c r="C94">
-        <v>-0.07497504200396499</v>
+        <v>0.003335077371223275</v>
       </c>
       <c r="D94">
-        <v>-0.0594028942471054</v>
+        <v>-0.04561593957901719</v>
       </c>
       <c r="E94">
-        <v>-0.3816011321051671</v>
+        <v>-0.1335538929893171</v>
       </c>
       <c r="F94">
-        <v>0.3804201291447636</v>
+        <v>0.3449881419374534</v>
       </c>
       <c r="G94">
-        <v>0.1595836420136969</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.2115953326389761</v>
+      </c>
+      <c r="H94">
+        <v>0.1192944396129481</v>
+      </c>
+      <c r="I94">
+        <v>0.02578949753167798</v>
+      </c>
+      <c r="J94">
+        <v>-0.1481588984795216</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.1867106579255816</v>
+        <v>-0.1345717058081025</v>
       </c>
       <c r="C95">
-        <v>-0.01659578482005783</v>
+        <v>-0.0674092452757797</v>
       </c>
       <c r="D95">
-        <v>-0.0006185681435656885</v>
+        <v>-0.07769966934827237</v>
       </c>
       <c r="E95">
-        <v>-0.3515907054403438</v>
+        <v>-0.03519395909142858</v>
       </c>
       <c r="F95">
-        <v>-0.8162110877687625</v>
+        <v>0.08067501179524127</v>
       </c>
       <c r="G95">
-        <v>-0.2650737396096746</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.8933683058645774</v>
+      </c>
+      <c r="H95">
+        <v>-0.1822337880639176</v>
+      </c>
+      <c r="I95">
+        <v>-0.09530015354131546</v>
+      </c>
+      <c r="J95">
+        <v>-0.2575942242434222</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.2266161500847615</v>
+        <v>-0.2067072119249622</v>
       </c>
       <c r="C98">
-        <v>-0.1097249350552592</v>
+        <v>0.03606689600985457</v>
       </c>
       <c r="D98">
-        <v>0.03781526401162017</v>
+        <v>-0.08595059027821464</v>
       </c>
       <c r="E98">
-        <v>0.08170558273824724</v>
+        <v>0.02828016201810446</v>
       </c>
       <c r="F98">
-        <v>-0.03756530120893616</v>
+        <v>-0.1644672265338646</v>
       </c>
       <c r="G98">
-        <v>0.02213584781775089</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.08786674732586652</v>
+      </c>
+      <c r="H98">
+        <v>-0.3186198876783847</v>
+      </c>
+      <c r="I98">
+        <v>-0.1570912411615837</v>
+      </c>
+      <c r="J98">
+        <v>-0.03664080828877381</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.02268174480751996</v>
+        <v>-0.01664369441877166</v>
       </c>
       <c r="C101">
-        <v>0.02457372869259578</v>
+        <v>-0.02649027565772756</v>
       </c>
       <c r="D101">
-        <v>-0.03103407393887119</v>
+        <v>0.01705548280136054</v>
       </c>
       <c r="E101">
-        <v>0.03471346375364462</v>
+        <v>-0.03279485884086537</v>
       </c>
       <c r="F101">
-        <v>-0.01669780459270823</v>
+        <v>-0.06481180290478174</v>
       </c>
       <c r="G101">
-        <v>0.009047500750871122</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.01855969437863834</v>
+      </c>
+      <c r="H101">
+        <v>0.1090426134942757</v>
+      </c>
+      <c r="I101">
+        <v>-0.05169228140341239</v>
+      </c>
+      <c r="J101">
+        <v>-0.1105462503839956</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>-0.1155821379585782</v>
+        <v>-0.1215229038420451</v>
       </c>
       <c r="C102">
-        <v>0.02193719399855365</v>
+        <v>-0.01864477578558027</v>
       </c>
       <c r="D102">
-        <v>-0.04337627119026985</v>
+        <v>0.008995411381655456</v>
       </c>
       <c r="E102">
-        <v>-0.09026380363407044</v>
+        <v>-0.05550835142728671</v>
       </c>
       <c r="F102">
-        <v>0.004807027475264172</v>
+        <v>0.1003248523499334</v>
       </c>
       <c r="G102">
-        <v>-0.01358685236269887</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.01406406632804795</v>
+      </c>
+      <c r="H102">
+        <v>-0.01833907320506277</v>
+      </c>
+      <c r="I102">
+        <v>0.05529096648850729</v>
+      </c>
+      <c r="J102">
+        <v>0.04083939347862905</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>-0.01509306412076137</v>
+        <v>-0.03102110822483881</v>
       </c>
       <c r="C103">
-        <v>0.0005704365612051473</v>
+        <v>-0.001510445097975778</v>
       </c>
       <c r="D103">
-        <v>-0.01273888159985245</v>
+        <v>0.00895458545719807</v>
       </c>
       <c r="E103">
-        <v>-0.02350508916918899</v>
+        <v>-0.02008508397394246</v>
       </c>
       <c r="F103">
-        <v>0.005351079739196914</v>
+        <v>0.02676165633885536</v>
       </c>
       <c r="G103">
-        <v>0.01164900692611875</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.01266353300152633</v>
+      </c>
+      <c r="H103">
+        <v>0.01534007710603462</v>
+      </c>
+      <c r="I103">
+        <v>0.02896946420128574</v>
+      </c>
+      <c r="J103">
+        <v>0.006503738663669116</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
